--- a/figures/confusion matrices_updated_20230104.xlsx
+++ b/figures/confusion matrices_updated_20230104.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabiki\Desktop\development\schmitz_r-lymphocyte_activation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD423C-F857-4F8E-B0BF-E059434BF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4899BEEE-9421-44C3-88B7-005707B4A41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6405" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="SF2" sheetId="2" r:id="rId2"/>
     <sheet name="SF4" sheetId="3" r:id="rId3"/>
     <sheet name="SF5" sheetId="4" r:id="rId4"/>
@@ -21,12 +21,25 @@
     <sheet name="SF7" sheetId="6" r:id="rId6"/>
     <sheet name="SF8" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="172">
   <si>
     <t>SF2 BCells </t>
   </si>
@@ -537,6 +550,51 @@
   </si>
   <si>
     <t xml:space="preserve"> 'top_4': 0.9338842975206612}</t>
+  </si>
+  <si>
+    <t>CD69+        433     47</t>
+  </si>
+  <si>
+    <t>CD69-         34    564</t>
+  </si>
+  <si>
+    <t>CD69+        413     67</t>
+  </si>
+  <si>
+    <t>CD69-         95    503</t>
+  </si>
+  <si>
+    <t>CD69+        396     84</t>
+  </si>
+  <si>
+    <t>CD69-        142    456</t>
+  </si>
+  <si>
+    <t>Predicted Condition  B-Cells  NK-Cells  T-Cells</t>
+  </si>
+  <si>
+    <t>B-Cells                  342        21        0</t>
+  </si>
+  <si>
+    <t>NK-Cells                   1       366        0</t>
+  </si>
+  <si>
+    <t>T-Cells                   77         1      270</t>
+  </si>
+  <si>
+    <t>T-Cells: CD69+</t>
+  </si>
+  <si>
+    <t>T-Cells: CD69-</t>
+  </si>
+  <si>
+    <t>B-Cells                  210        16        0</t>
+  </si>
+  <si>
+    <t>NK-Cells                   1       198        0</t>
+  </si>
+  <si>
+    <t>T-Cells                   43         0      123</t>
   </si>
 </sst>
 </file>
@@ -727,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,6 +796,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1742,24 +1800,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1832,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1841,7 +1899,7 @@
         <v>0.80440771349862261</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1873,7 +1931,7 @@
         <v>0.37741046831955921</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1905,7 +1963,7 @@
         <v>0.59211469534050176</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1913,13 +1971,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1953,7 +2011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -1970,7 +2028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -1987,7 +2045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -2004,7 +2062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2019,7 +2077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2036,7 +2094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -2050,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -2058,7 +2116,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -2066,7 +2124,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -2082,7 +2140,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2094,7 +2152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>44</v>
       </c>
@@ -2102,7 +2160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2113,7 +2171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -2146,7 +2204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -2157,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -2168,7 +2226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>61</v>
       </c>
@@ -2176,7 +2234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2184,27 +2242,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2213,7 +2271,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -2221,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -2229,7 +2287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>69</v>
       </c>
@@ -2237,7 +2295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>71</v>
       </c>
@@ -2245,12 +2303,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2258,12 +2316,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -2271,7 +2329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2279,32 +2337,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2314,7 +2372,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -2322,7 +2380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>83</v>
       </c>
@@ -2330,7 +2388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2338,12 +2396,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2351,7 +2409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2417,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>91</v>
       </c>
@@ -2375,7 +2433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>93</v>
       </c>
@@ -2383,49 +2441,49 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="63" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G70" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2433,12 +2491,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>139</v>
       </c>
@@ -2446,7 +2504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>95</v>
       </c>
@@ -2454,7 +2512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>96</v>
       </c>
@@ -2462,7 +2520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>106</v>
       </c>
@@ -2470,7 +2528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>108</v>
       </c>
@@ -2478,7 +2536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>110</v>
       </c>
@@ -2486,19 +2544,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J80" s="5"/>
       <c r="K80" s="4" t="s">
         <v>113</v>
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2506,12 +2564,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>140</v>
       </c>
@@ -2519,7 +2577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>117</v>
       </c>
@@ -2545,7 +2603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>118</v>
       </c>
@@ -2571,7 +2629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>119</v>
       </c>
@@ -2597,7 +2655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>120</v>
       </c>
@@ -2623,7 +2681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>121</v>
       </c>
@@ -2649,7 +2707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>122</v>
       </c>
@@ -2675,7 +2733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>123</v>
       </c>
@@ -2712,32 +2770,32 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N26" sqref="I5:N26"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" t="s">
         <v>134</v>
       </c>
@@ -2745,8 +2803,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>133</v>
       </c>
       <c r="C4" t="s">
@@ -2759,8 +2817,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="19"/>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>135</v>
       </c>
@@ -2777,22 +2835,22 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I6" s="6"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="16"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I7" s="6"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="7" t="s">
         <v>134</v>
       </c>
@@ -2801,7 +2859,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2815,7 +2873,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>133</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -2829,12 +2887,12 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>133</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="8" t="s">
         <v>135</v>
       </c>
@@ -2846,7 +2904,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -2863,7 +2921,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>132</v>
       </c>
@@ -2874,7 +2932,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2882,7 +2940,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2896,23 +2954,23 @@
         <v>132</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16" t="s">
+      <c r="K14" s="19"/>
+      <c r="L14" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>133</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="7" t="s">
         <v>134</v>
       </c>
@@ -2921,7 +2979,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>131</v>
       </c>
@@ -2932,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>133</v>
       </c>
       <c r="K16" s="8" t="s">
@@ -2946,7 +3004,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>132</v>
       </c>
@@ -2957,7 +3015,7 @@
         <v>196</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="8" t="s">
         <v>135</v>
       </c>
@@ -2969,7 +3027,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2977,7 +3035,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2985,22 +3043,22 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="6"/>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16" t="s">
+      <c r="K22" s="19"/>
+      <c r="L22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M22" s="16"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="7" t="s">
         <v>134</v>
       </c>
@@ -3009,9 +3067,9 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="6"/>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>133</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -3025,9 +3083,9 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="6"/>
-      <c r="J25" s="17"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="8" t="s">
         <v>135</v>
       </c>
@@ -3039,7 +3097,7 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -3076,12 +3134,12 @@
       <selection activeCell="F2" sqref="F2:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.84375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3101,22 +3159,22 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -3127,8 +3185,8 @@
         <v>15</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="7" t="s">
         <v>134</v>
       </c>
@@ -3137,7 +3195,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>132</v>
       </c>
@@ -3148,7 +3206,7 @@
         <v>196</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -3162,9 +3220,9 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
         <v>135</v>
       </c>
@@ -3176,7 +3234,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3184,7 +3242,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3198,12 +3256,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>131</v>
       </c>
@@ -3220,7 +3278,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>132</v>
       </c>
@@ -3231,20 +3289,20 @@
         <v>181</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7" t="s">
         <v>134</v>
       </c>
@@ -3253,9 +3311,9 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="6"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -3269,7 +3327,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3283,7 +3341,7 @@
         <v>132</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="8" t="s">
         <v>135</v>
       </c>
@@ -3295,7 +3353,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>133</v>
       </c>
@@ -3306,7 +3364,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -3317,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>132</v>
       </c>
@@ -3328,7 +3386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3336,22 +3394,22 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="7" t="s">
         <v>134</v>
       </c>
@@ -3360,9 +3418,9 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="6"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3376,9 +3434,9 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="6"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
         <v>135</v>
       </c>
@@ -3390,7 +3448,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3419,27 +3477,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5FDC36-550E-4183-BAFA-124BBCC55894}">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.84375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -3448,34 +3501,28 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4">
-        <v>676</v>
-      </c>
-      <c r="D4">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="7" t="s">
         <v>134</v>
       </c>
@@ -3484,18 +3531,12 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>1344</v>
+        <v>158</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -3509,9 +3550,9 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
         <v>135</v>
       </c>
@@ -3523,7 +3564,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3531,34 +3572,22 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10">
-        <v>506</v>
-      </c>
-      <c r="D10">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -3567,31 +3596,25 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11">
-        <v>143</v>
-      </c>
-      <c r="D11">
-        <v>1267</v>
+        <v>160</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7" t="s">
         <v>134</v>
       </c>
@@ -3600,9 +3623,9 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="6"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -3616,21 +3639,15 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="8" t="s">
         <v>135</v>
       </c>
@@ -3642,9 +3659,9 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -3653,29 +3670,17 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16">
-        <v>549</v>
-      </c>
-      <c r="D16">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17">
-        <v>168</v>
-      </c>
-      <c r="D17">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3683,22 +3688,22 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="7" t="s">
         <v>134</v>
       </c>
@@ -3707,9 +3712,9 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="6"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3723,9 +3728,9 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="6"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
         <v>135</v>
       </c>
@@ -3737,7 +3742,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3764,15 +3769,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3289ACF2-55D6-48B3-8C81-C5AE6EBFCF9E}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3786,7 +3791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3798,47 +3803,29 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B3">
-        <v>362</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>368</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="12" t="s">
         <v>145</v>
       </c>
@@ -3850,21 +3837,12 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1428</v>
-      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -3881,9 +3859,9 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="7" t="s">
         <v>146</v>
       </c>
@@ -3898,9 +3876,12 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="12" t="s">
         <v>147</v>
       </c>
@@ -3915,7 +3896,10 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3923,6 +3907,21 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3938,15 +3937,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBD06D5-E800-42F7-A73B-99A93393ACC8}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3960,54 +3959,27 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
-      <c r="B3">
-        <v>225</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>172</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -4016,23 +3988,23 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="6"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="12" t="s">
         <v>145</v>
       </c>
@@ -4044,9 +4016,12 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -4063,9 +4038,12 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="7" t="s">
         <v>146</v>
       </c>
@@ -4080,9 +4058,12 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="12" t="s">
         <v>147</v>
       </c>
@@ -4097,7 +4078,10 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4105,6 +4089,11 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4122,12 +4111,12 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -4144,50 +4133,50 @@
         <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4196,30 +4185,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -4227,30 +4216,30 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>201</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>183</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4259,36 +4248,36 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>421</v>
+        <v>135</v>
       </c>
       <c r="G6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -4301,27 +4290,27 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="6"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="20"/>
       <c r="L11" s="21" t="s">
         <v>145</v>
@@ -4337,10 +4326,10 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="6"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="20"/>
       <c r="L12" s="12" t="s">
         <v>148</v>
@@ -4362,9 +4351,9 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="6"/>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>133</v>
       </c>
       <c r="J13" s="22" t="s">
@@ -4393,9 +4382,9 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="6"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="22"/>
       <c r="K14" s="7" t="s">
         <v>149</v>
@@ -4420,9 +4409,9 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="6"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="22" t="s">
         <v>146</v>
       </c>
@@ -4449,9 +4438,9 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="6"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="22"/>
       <c r="K16" s="7" t="s">
         <v>149</v>
@@ -4476,9 +4465,9 @@
       </c>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="6"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="21" t="s">
         <v>147</v>
       </c>
@@ -4505,9 +4494,9 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="6"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="21"/>
       <c r="K18" s="12" t="s">
         <v>149</v>
@@ -4532,7 +4521,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
